--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.351</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.671</v>
+        <v>16.851</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.098</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.737</v>
+        <v>17.606</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.262</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.232</v>
+        <v>10.06</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.66858688288222</v>
+        <v>-1.435113031530557</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.67035466746201</v>
+        <v>12.70509278449645</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.81648555301622</v>
+        <v>16.5513349753037</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.04013330172526</v>
+        <v>-3.885725984867896</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.08917541611022</v>
+        <v>10.38655600951412</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.64543216343645</v>
+        <v>13.96781603119523</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.83594014321854</v>
+        <v>1.715919805784109</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.09619305634931</v>
+        <v>23.21154155474633</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.05481168263992</v>
+        <v>26.72296220013057</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.06565065183372</v>
+        <v>18.93180280114952</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.06258236906061</v>
+        <v>23.18779438460717</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.51960875651976</v>
+        <v>25.86636361233033</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.16103933632805</v>
+        <v>4.956994052637192</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.36117957785514</v>
+        <v>14.63655572816598</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43.90150369694042</v>
+        <v>23.9569582542069</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.51173771666657</v>
+        <v>3.080744323103472</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.73941893127176</v>
+        <v>20.44975384262423</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.93112779835901</v>
+        <v>29.37030073561708</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.59441960086288</v>
+        <v>-1.157876743896416</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.94525529114182</v>
+        <v>13.22839696977682</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.54654147855183</v>
+        <v>21.13218236885366</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.70803072322756</v>
+        <v>0.6079467064263611</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.22137984152705</v>
+        <v>25.18189192248942</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.2150251716338</v>
+        <v>34.82901800078466</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39.44111943112799</v>
+        <v>25.36890280128379</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>46.66239946166831</v>
+        <v>38.44227852874095</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49.13583134181893</v>
+        <v>44.1065735158197</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.37928773546463</v>
+        <v>3.261450897709677</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.00894800827614</v>
+        <v>27.10691791408979</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.567836390754</v>
+        <v>35.98580140262339</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.43954078577521</v>
+        <v>2.199573640959665</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.05125993324803</v>
+        <v>23.60792244720978</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.3860802030425</v>
+        <v>33.59464758091188</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.48001495400342</v>
+        <v>-2.989661455076991</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.22838173465598</v>
+        <v>15.81032245508309</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.00231005168907</v>
+        <v>23.90413969521943</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.25460607786906</v>
+        <v>2.54387910004179</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.1241213583157</v>
+        <v>31.37952668672485</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.25579253813002</v>
+        <v>42.34769276175861</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46.45213288856833</v>
+        <v>39.66292553559548</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.87331143409106</v>
+        <v>49.8892247049014</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.48160388876057</v>
+        <v>57.42168991273363</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.98949152563654</v>
+        <v>6.545265752133382</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>50.12474960331834</v>
+        <v>36.61880013696167</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>54.90615569509706</v>
+        <v>46.10838518992731</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>18.40556275850602</v>
+        <v>5.675280613044258</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.82384125595259</v>
+        <v>31.1407834316294</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.98895522825326</v>
+        <v>35.90743402351656</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.36025701587049</v>
+        <v>5.853266780537643</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.87878927863079</v>
+        <v>28.3090988555375</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.45620648028508</v>
+        <v>33.4791439828885</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.35158430953943</v>
+        <v>14.38292478586058</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.00540037010284</v>
+        <v>47.75309381490359</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.97802461895095</v>
+        <v>52.03466572474193</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>39.65617724799567</v>
+        <v>41.81412641858967</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.7531406131447</v>
+        <v>46.24418783429522</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.20314279556668</v>
+        <v>49.68883964187078</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.21095105638109</v>
+        <v>10.09834279064883</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.9790297358587</v>
+        <v>35.41360746854376</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.55263701218611</v>
+        <v>43.73798520928682</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.79651846725343</v>
+        <v>3.451789312003678</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.42120647783995</v>
+        <v>30.47996053695061</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.62353317811826</v>
+        <v>37.39340852252928</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.51999600861351</v>
+        <v>0.157290929111273</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.31618489545728</v>
+        <v>22.07471779809911</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.92955901636734</v>
+        <v>29.29559228138947</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.78438431791155</v>
+        <v>4.464904176265609</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.67128585676355</v>
+        <v>39.21967252663743</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.67167059973266</v>
+        <v>46.50272896936181</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.60830265518431</v>
+        <v>37.33211973556726</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.91238956611407</v>
+        <v>47.59696368045483</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.36914961770757</v>
+        <v>53.8178291962655</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.04941676530326</v>
+        <v>4.491852814593422</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.21496406456817</v>
+        <v>39.42743912207219</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>50.8001642919612</v>
+        <v>44.93648876759458</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.362933289703</v>
+        <v>3.714057614797047</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.34055734812832</v>
+        <v>34.63940285997091</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.71651779959575</v>
+        <v>43.26043596725434</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.99992429123805</v>
+        <v>-1.17690452150898</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.16212080497547</v>
+        <v>25.58801741257387</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.98303401935202</v>
+        <v>33.52653548758269</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.99278220920918</v>
+        <v>6.92562228508311</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.20640116262401</v>
+        <v>45.67635340280108</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.37373175621945</v>
+        <v>54.98896821202187</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.27051688457052</v>
+        <v>51.52387029933235</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>57.76300342265011</v>
+        <v>60.39250748847498</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.3896369455524</v>
+        <v>68.09173907803216</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.30708820385362</v>
+        <v>8.217596195198258</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.94369197415568</v>
+        <v>49.47107659866418</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.78985408868185</v>
+        <v>55.4704644955935</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.35034602126768</v>
+        <v>5.726388457782262</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.76189386586627</v>
+        <v>27.17193230662609</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.91890377037844</v>
+        <v>30.68273334910257</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.18544889855169</v>
+        <v>4.134924684364638</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.6878511335054</v>
+        <v>22.65091254356032</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.25599869935622</v>
+        <v>26.51156519294273</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.18522687959081</v>
+        <v>12.4963158538993</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.82641402690216</v>
+        <v>41.88053810514349</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.79007904776877</v>
+        <v>44.89016414595224</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.56846983316923</v>
+        <v>37.33673227673502</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.66545427776622</v>
+        <v>41.85192412978998</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.10533237173368</v>
+        <v>43.95544989730888</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.17625049849207</v>
+        <v>10.19301348824171</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.92517107305252</v>
+        <v>29.71848031118144</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.48897398843925</v>
+        <v>37.29766908381872</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.84084884370618</v>
+        <v>11.11001981021437</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.45972102734862</v>
+        <v>34.95866538565528</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.65522535771377</v>
+        <v>40.8014123323582</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.44892362962485</v>
+        <v>6.039341066747509</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.23000826017998</v>
+        <v>24.91548928049149</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.83564999234146</v>
+        <v>31.04133558064685</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.72630864705956</v>
+        <v>10.98112719345379</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.60149439488946</v>
+        <v>42.62653862046979</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.59425401692413</v>
+        <v>48.80573179146754</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.62371913151542</v>
+        <v>40.94063844787223</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.92827748739772</v>
+        <v>50.81374308923678</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.37449425778004</v>
+        <v>55.32898175874679</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.11295436242928</v>
+        <v>11.64094935178861</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.26076546282485</v>
+        <v>40.84751409273402</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.83817456960683</v>
+        <v>46.18330598279523</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.418390399677</v>
+        <v>8.613213471383625</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.39129882387179</v>
+        <v>36.84126631009998</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.76179904752479</v>
+        <v>44.31992985181598</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.93732818319627</v>
+        <v>2.086051238876323</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.08629182267682</v>
+        <v>26.2902913273108</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.90131517405314</v>
+        <v>33.16064439004953</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.94068364826843</v>
+        <v>10.79872926242884</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.14395730032382</v>
+        <v>46.9272026636017</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.30503163226256</v>
+        <v>55.03925788483582</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.29158229078989</v>
+        <v>53.18638983072967</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>56.78591994571524</v>
+        <v>61.70739702604636</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.40199990407135</v>
+        <v>67.69817406477401</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.37162706567953</v>
+        <v>13.14570717584932</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.99281773511039</v>
+        <v>49.34701450846352</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.83332539369983</v>
+        <v>55.17438911593962</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.314280447824594</v>
+        <v>2.998307469956131</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.0724436759652</v>
+        <v>15.21487339440106</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.18321975871154</v>
+        <v>18.29205892727909</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.427477897217834</v>
+        <v>0.8582615510474945</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.20866305114528</v>
+        <v>13.03473301621131</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.72400146252708</v>
+        <v>16.26969679568083</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.74984756392451</v>
+        <v>5.571697229589761</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.78733932570772</v>
+        <v>25.07343109842422</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.71163734536004</v>
+        <v>27.73152493107094</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.10502876511197</v>
+        <v>20.44039925609923</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.0163189075932</v>
+        <v>23.96723457731672</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.44822567635829</v>
+        <v>27.88081745152341</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.65320983230387</v>
+        <v>12.44001021426434</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.50967085002544</v>
+        <v>19.75871300802635</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.9977750989998</v>
+        <v>28.32085366988867</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.19578275025892</v>
+        <v>5.957235015286041</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.17944045219769</v>
+        <v>20.64675306462864</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.33460485715892</v>
+        <v>28.45623497720763</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.028521950761139</v>
+        <v>0.5760502700467161</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.11004484302252</v>
+        <v>12.43242098305105</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.66991061837779</v>
+        <v>19.56792435822752</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.66777961429938</v>
+        <v>1.361156847793971</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.95730183528751</v>
+        <v>23.14938585461632</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.91586834229798</v>
+        <v>31.6058692678321</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.5231566184689</v>
+        <v>21.76130046536102</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.65943584487771</v>
+        <v>33.77150564618866</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.10517988591358</v>
+        <v>40.53140044087856</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.91039584290854</v>
+        <v>5.097158280781926</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.19541485060474</v>
+        <v>25.32905382245964</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.70080261231792</v>
+        <v>33.10154425082831</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>17.59770985726208</v>
+        <v>7.322252997480519</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.96661997637813</v>
+        <v>25.69258371107697</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.2690770625418</v>
+        <v>35.08756861098536</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.38525830825405</v>
+        <v>0.2024530512109912</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.86577690074244</v>
+        <v>16.08283515774461</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.60254110847406</v>
+        <v>24.08850437660024</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.71768372632462</v>
+        <v>5.378743112966211</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.36423688168964</v>
+        <v>31.08354762807235</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.46465215607361</v>
+        <v>41.36715245027935</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.01712922165258</v>
+        <v>38.1139904757629</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.35213380049017</v>
+        <v>47.62107377624544</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.93401705599412</v>
+        <v>56.29119638948682</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.98662945353147</v>
+        <v>10.61595829757582</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.77921156242861</v>
+        <v>36.64055852796814</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>47.51280660231266</v>
+        <v>45.41305839085051</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.18736270286453</v>
+        <v>6.292275220859292</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.18292750213909</v>
+        <v>24.72784417965582</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.31842459997316</v>
+        <v>28.4022319082508</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.65139810142674</v>
+        <v>5.505646526988691</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.6956932864045</v>
+        <v>23.76931326480277</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.24378952596502</v>
+        <v>27.76828585765034</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.41373007107798</v>
+        <v>12.53971684298286</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.66924799128051</v>
+        <v>38.50556119973588</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.62155862596808</v>
+        <v>41.75003507029994</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.59812230442262</v>
+        <v>30.64581382825655</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.62445766395464</v>
+        <v>35.12335305698261</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.05619899787852</v>
+        <v>38.11120703601422</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.71432232899718</v>
+        <v>12.24130571475079</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.89169933467609</v>
+        <v>24.78995303492289</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44.41827443458548</v>
+        <v>33.69716844248158</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.2655468058664</v>
+        <v>14.30454005911918</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.48709385342509</v>
+        <v>36.07653598868118</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.66069216512401</v>
+        <v>43.13357670045906</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.44949112405686</v>
+        <v>9.986135056797592</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.79508975771866</v>
+        <v>28.92106493623437</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.37953795300555</v>
+        <v>35.54287195962793</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.53995404877854</v>
+        <v>13.98632122269022</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.04817494024626</v>
+        <v>43.07360270536907</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>39.02808039751248</v>
+        <v>50.73506727264004</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.21585546665884</v>
+        <v>41.43782335436141</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>47.46659003694667</v>
+        <v>54.28345173385142</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.90718423215536</v>
+        <v>59.81787561170964</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.1757377340406</v>
+        <v>16.31901612652813</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>43.78254411175038</v>
+        <v>43.19613480563751</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>48.31677739140441</v>
+        <v>50.14695055429985</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.06362170227566</v>
+        <v>8.474615087672321</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.66567222382014</v>
+        <v>33.36896118355993</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.99266281927376</v>
+        <v>42.3709180592576</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.20089143133522</v>
+        <v>3.102363726470209</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.93944732573087</v>
+        <v>25.45157121712358</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.70814824951452</v>
+        <v>33.23614089766926</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.94740476231379</v>
+        <v>10.3135648178902</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.80800470714789</v>
+        <v>42.72259421527594</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45.93597696286696</v>
+        <v>52.599870965982</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.09250664992354</v>
+        <v>49.51610408530547</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>54.54436242635011</v>
+        <v>59.93358619366753</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>57.12644721740411</v>
+        <v>67.81561694339766</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.65397943952398</v>
+        <v>13.81531970702701</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>50.76398075048454</v>
+        <v>46.45098407634003</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.53579642360481</v>
+        <v>54.55672817308599</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-9.683270314998865</v>
+        <v>1.553818348623231</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.086329107057836</v>
+        <v>25.47606570995346</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7.086142157642854</v>
+        <v>29.97503431866537</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-14.55921348599976</v>
+        <v>2.018608267749814</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.25335278411319</v>
+        <v>24.05505865405469</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>3.648513906910765</v>
+        <v>29.3443458492734</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-7.253662327592551</v>
+        <v>11.24963274810254</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>4.821129129849552</v>
+        <v>42.74916855185143</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7.645328068309126</v>
+        <v>46.70910694522019</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>10.07266202812305</v>
+        <v>30.44678365627184</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.9000337272881</v>
+        <v>34.05379693827178</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.20698524616254</v>
+        <v>36.76189085685853</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-3.983140118281028</v>
+        <v>2.56899322767635</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.90270558670436</v>
+        <v>21.01595332652084</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.24111492953332</v>
+        <v>29.12054110224944</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-6.540355476731037</v>
+        <v>10.99269331137512</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>7.435333507740971</v>
+        <v>40.66001885052157</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>10.4620590052924</v>
+        <v>45.66296794792546</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-11.64654319116767</v>
+        <v>5.558988715344432</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3.441573911130575</v>
+        <v>31.48828674856426</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.860030804076864</v>
+        <v>37.0002201010343</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-4.033097316796486</v>
+        <v>13.32412998521481</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.273155823184219</v>
+        <v>50.33142984004079</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11.11448852466302</v>
+        <v>55.63714180666719</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.75271417279728</v>
+        <v>44.80126080441997</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.78609219181185</v>
+        <v>55.80347514312568</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.09130297422969</v>
+        <v>60.33718905207922</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.4266450133006856</v>
+        <v>14.09970640275787</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.85464551202841</v>
+        <v>48.40996813019099</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.188733143519</v>
+        <v>52.31546168210615</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.2387056962503067</v>
+        <v>6.845316302656583</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>14.08515320903009</v>
+        <v>38.71111489155446</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.27632771666191</v>
+        <v>46.18512615940755</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-5.395435651381959</v>
+        <v>0.5595614382592817</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.05185230680366</v>
+        <v>29.29739869973528</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>13.66711967385584</v>
+        <v>36.41265673681764</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2.896389005935433</v>
+        <v>10.83685918662872</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>15.52420896454275</v>
+        <v>50.11978087912107</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.52429411306549</v>
+        <v>58.22953799712491</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.10375649034316</v>
+        <v>52.47030450782679</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.32486682161068</v>
+        <v>62.4575570171864</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.78678725198721</v>
+        <v>68.30966854089951</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.528966570975996</v>
+        <v>12.64556060767161</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.27662346370336</v>
+        <v>52.23086822759679</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.86065085530224</v>
+        <v>56.8911009187153</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-13.06043525625365</v>
+        <v>-5.422557406243715</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.6787124989413229</v>
+        <v>6.662169250230091</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3.724120995837083</v>
+        <v>11.10970043408402</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-18.41654883403875</v>
+        <v>-10.3809494731929</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-3.656338665074514</v>
+        <v>0.6611872775346015</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-0.2199526148765472</v>
+        <v>5.107798079389767</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-11.08519299846806</v>
+        <v>-3.489763421475146</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.9493807309652453</v>
+        <v>15.79735629112316</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3.805896158505711</v>
+        <v>19.81057786893797</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.427537311809772</v>
+        <v>11.63978502196558</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>13.16854539053769</v>
+        <v>15.63352013919672</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.54980924641414</v>
+        <v>18.51866672960876</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-7.564154432892934</v>
+        <v>-2.387811227621278</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.30338237933675</v>
+        <v>5.333028264420998</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.70409099716802</v>
+        <v>13.81843678798516</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-10.42247856545899</v>
+        <v>1.925607501562297</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>3.527860380562231</v>
+        <v>18.68531455915429</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.621806442233314</v>
+        <v>27.8273464983042</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-16.02484320136367</v>
+        <v>-4.034318565155221</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-0.981811752227955</v>
+        <v>9.021226722465281</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>2.503240128986313</v>
+        <v>17.79530418745458</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-8.40345817049301</v>
+        <v>0.1115027640496233</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>3.868537119161253</v>
+        <v>23.98405073577541</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>6.763847623923297</v>
+        <v>33.60045813141264</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>9.600592747141434</v>
+        <v>22.23135826970142</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>16.55077627703761</v>
+        <v>33.29999884861821</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>18.95132862015259</v>
+        <v>39.09113295382172</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-4.524582846576635</v>
+        <v>2.680422549870066</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.74649875439061</v>
+        <v>23.92019204534319</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.17451610537854</v>
+        <v>32.06280283854291</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-3.74242247893163</v>
+        <v>3.346396700548317</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.56881097806448</v>
+        <v>24.7484168504811</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.80002958924419</v>
+        <v>34.67273841322606</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-9.387808219294627</v>
+        <v>-2.807949785572383</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>6.030982867790776</v>
+        <v>15.61199499266353</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>9.682249756893121</v>
+        <v>24.18339423523489</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-1.075184246068446</v>
+        <v>4.995724934656691</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>11.53212759102462</v>
+        <v>33.64653451091803</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.55946798628033</v>
+        <v>44.3212229996299</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>17.33384538913057</v>
+        <v>39.70185245978828</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.47008592001411</v>
+        <v>49.50126102194132</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.00688762936672</v>
+        <v>55.65292978493528</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2.799687177305458</v>
+        <v>10.04563912633409</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>21.54845754760404</v>
+        <v>38.33406029505276</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.18657936448342</v>
+        <v>46.50341615230941</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-10.56373863980824</v>
+        <v>-10.34517654720101</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>3.254167084476876</v>
+        <v>3.06289916198654</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>6.329233977899335</v>
+        <v>7.049891176852061</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-15.83361223774705</v>
+        <v>-11.45111944276862</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-0.9768543570683335</v>
+        <v>1.411921391660481</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>2.499618407120572</v>
+        <v>5.475275476271658</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-8.321570837010839</v>
+        <v>-7.695097198101742</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>3.783056736908271</v>
+        <v>13.16064667246766</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.676377434310339</v>
+        <v>16.78185558615206</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>9.232219337278515</v>
+        <v>6.726782179619939</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.18260850030405</v>
+        <v>10.90113599192434</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.57513354251599</v>
+        <v>14.45458823912496</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-4.826627104863434</v>
+        <v>-7.975281279345189</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.13306768322906</v>
+        <v>0.8659811276674727</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.5724064754652</v>
+        <v>8.978529132757879</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-7.478627766703354</v>
+        <v>-9.900937954894324</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>6.556329978146998</v>
+        <v>5.11476624379968</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>9.668739508756687</v>
+        <v>13.51851973393195</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-13.02559617498092</v>
+        <v>-12.82852412692462</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2.121804747343454</v>
+        <v>-0.9667430564451607</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>5.634071258845907</v>
+        <v>6.726741602753599</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-5.189490562482945</v>
+        <v>-12.98620698438421</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.159000643781177</v>
+        <v>9.251756662763627</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.0793163151019</v>
+        <v>18.33971917088543</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.8378194832075</v>
+        <v>8.233173231369305</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.00718713080783</v>
+        <v>20.84000452504466</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.40823754331926</v>
+        <v>27.77229422112671</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1.377943418687963</v>
+        <v>-12.59338844251707</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.99698737247145</v>
+        <v>7.969583429657657</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.44332280283455</v>
+        <v>15.13588840493448</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1.011010890887462</v>
+        <v>-11.31855484520623</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.39398676420085</v>
+        <v>7.4081861926742</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.65685616082727</v>
+        <v>17.97929738731432</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-6.575087490498447</v>
+        <v>-15.39270517317674</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.954198683734838</v>
+        <v>0.5757802254096198</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>12.64721304770402</v>
+        <v>9.620854415620007</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.935590771669922</v>
+        <v>-11.6759465015726</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14.62675571096582</v>
+        <v>14.46573468743312</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.69245349787325</v>
+        <v>25.99941255939181</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.3796443829811</v>
+        <v>21.87022495269219</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.74592537394179</v>
+        <v>32.39671034753871</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.28561455804592</v>
+        <v>41.80581920056361</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>5.758770332069247</v>
+        <v>-10.08079567542681</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.62285383334149</v>
+        <v>16.87808629231081</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.30264665331814</v>
+        <v>25.24996952107634</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.895302297386671</v>
+        <v>5.949885165950462</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.1891586183621</v>
+        <v>32.46235624926595</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.27520951176732</v>
+        <v>38.75621940504611</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.646487196854707</v>
+        <v>7.435668720214271</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.02531042451672</v>
+        <v>32.6828213443609</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.51670762938953</v>
+        <v>38.87254714770454</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.99851875202883</v>
+        <v>18.29586923698154</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.54706979773889</v>
+        <v>52.54722677574965</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.45039371193366</v>
+        <v>58.35847850996807</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.96980838243469</v>
+        <v>45.90562985289368</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.96543901898098</v>
+        <v>51.92181953044435</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.35064032058229</v>
+        <v>54.03652000287113</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.08739324907735</v>
+        <v>18.18311387764411</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.69380715386552</v>
+        <v>40.00969969927585</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.1635666468793</v>
+        <v>51.75801559684724</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.183842934813754</v>
+        <v>1.566950267163753</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.66818793525205</v>
+        <v>29.94719628139292</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.78351922987336</v>
+        <v>37.20751814261387</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.679613867545193</v>
+        <v>-2.799964884049199</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.31828975219869</v>
+        <v>21.92793333216614</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.83469873638143</v>
+        <v>28.8331512925179</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>13.30071008750856</v>
+        <v>4.56424984435214</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.06739971324617</v>
+        <v>40.49801546140179</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.98975019484372</v>
+        <v>48.18531539514519</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.77356667181428</v>
+        <v>38.97670387680317</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.96808870033766</v>
+        <v>51.13700122651085</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>40.35684789739899</v>
+        <v>54.53112360218611</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.79211802735846</v>
+        <v>8.409883920402265</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.77445738979854</v>
+        <v>41.49269095988915</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>39.24288322020989</v>
+        <v>48.86692236973964</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>15.05337864209334</v>
+        <v>-0.2715016997675335</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.87894392000422</v>
+        <v>31.71042165338478</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.15614770663682</v>
+        <v>40.84899997109579</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.47178801386706</v>
+        <v>-4.550922834226217</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.46291431345504</v>
+        <v>24.55530831889997</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.17451334531241</v>
+        <v>32.31397046046997</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>19.74687372775674</v>
+        <v>5.618420820529362</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.82938021127633</v>
+        <v>45.2411506228113</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.90820844354843</v>
+        <v>55.12554680893805</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.65370612086272</v>
+        <v>50.56775777118936</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>45.03548096543976</v>
+        <v>61.53686239747543</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.58223440640511</v>
+        <v>66.57662656434405</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.28778700575923</v>
+        <v>10.35365674358032</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.72575577472571</v>
+        <v>49.74985711752166</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>46.43940659078786</v>
+        <v>57.72934522332041</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-6.568800951555545</v>
+        <v>-5.293940049392116</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.929074568925884</v>
+        <v>7.614250638908723</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.90561827306685</v>
+        <v>11.13970758688552</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-11.43550099515453</v>
+        <v>-10.58866662621726</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.096396726662981</v>
+        <v>-0.4334559230313175</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.455515852034317</v>
+        <v>3.35904008880367</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-4.052553157211889</v>
+        <v>-5.461914932341873</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.796231117068892</v>
+        <v>14.4947269756591</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.58647084059939</v>
+        <v>17.64314107796952</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.84598015960547</v>
+        <v>11.16658840245614</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.46606303605063</v>
+        <v>13.96164808699383</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.78721294938198</v>
+        <v>18.14512022998448</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1.160302743094931</v>
+        <v>-8.626620849258352</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.45666697144819</v>
+        <v>5.204155002456485</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>20.75211834947216</v>
+        <v>10.26691290586453</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-4.105173507993896</v>
+        <v>-5.566254857556132</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.599653423540062</v>
+        <v>10.36819918773009</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>12.62531650145564</v>
+        <v>19.37553302509599</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-9.189924639773579</v>
+        <v>-9.643771891604942</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.6184612669256</v>
+        <v>1.423561327413559</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>9.028017576726576</v>
+        <v>10.666776438515</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1.538653374537134</v>
+        <v>-8.883428369759947</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.54200642532624</v>
+        <v>13.99245779922676</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>13.37240103560643</v>
+        <v>23.3854469709249</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.83391663556539</v>
+        <v>12.6576694563224</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.65344283364905</v>
+        <v>21.58798328880157</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.99360629343485</v>
+        <v>30.18084971593464</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.697207273460265</v>
+        <v>-9.529586646313447</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.70415601916053</v>
+        <v>14.21053297462537</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.03089027573406</v>
+        <v>20.70158714596804</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2.881718955780315</v>
+        <v>-2.770575607452137</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.92275050801376</v>
+        <v>17.65816479546373</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.0898437061372</v>
+        <v>27.24464007431631</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-2.21519913303473</v>
+        <v>-8.269323736419182</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>12.94250115771609</v>
+        <v>8.048171210651606</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.52170536829533</v>
+        <v>16.90909564479261</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.147326693872309</v>
+        <v>-3.424688993497007</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.53992396755877</v>
+        <v>24.09551194892261</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.50608033771488</v>
+        <v>34.33236099340727</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.91893770539584</v>
+        <v>30.3859578636329</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.91108072201994</v>
+        <v>37.86304324888224</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.39744786191036</v>
+        <v>47.29396519499873</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>9.400035226393165</v>
+        <v>-2.194152306734171</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.85151201313988</v>
+        <v>27.95615824606687</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.39315525970638</v>
+        <v>34.55307547147302</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.292976281926769</v>
+        <v>-10.40633368230563</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.07071189577617</v>
+        <v>7.364211849356293</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.09191290916591</v>
+        <v>9.81825121775918</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.308456803531328</v>
+        <v>-12.53575809297775</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.51533920698937</v>
+        <v>1.731116943678488</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.92733331448941</v>
+        <v>5.233060060389548</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.661928481887813</v>
+        <v>-7.011203159281546</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.74326554303251</v>
+        <v>18.45626545850852</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.57779997011354</v>
+        <v>20.36416079925915</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.19027750121578</v>
+        <v>12.00054344754984</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.03318697513447</v>
+        <v>14.44553100793045</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.36154536256931</v>
+        <v>17.29944604437938</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.747956870467021</v>
+        <v>-13.15085382435075</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.66019045914131</v>
+        <v>2.642704497722525</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.02144613380022</v>
+        <v>7.811048175622443</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.240635889315136</v>
+        <v>8.250209318225773</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.22904547578334</v>
+        <v>30.94838142757231</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.2870297923118</v>
+        <v>35.44526475628194</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1.436312587552365</v>
+        <v>3.445374567673401</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.54017242104518</v>
+        <v>21.00556026046391</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.98875958393102</v>
+        <v>26.45526000802863</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.69965830928664</v>
+        <v>7.130418246459016</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.01622851472576</v>
+        <v>37.36107880285363</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.87882569276776</v>
+        <v>42.09361380439546</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.70243622364686</v>
+        <v>34.22167519688031</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.75101470131373</v>
+        <v>42.70650402512813</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.08235722136963</v>
+        <v>48.28170789645642</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>12.12983414470577</v>
+        <v>6.660899642853629</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.44103333087904</v>
+        <v>34.73389784926216</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.81503151883868</v>
+        <v>37.8487270958483</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.16139474599424</v>
+        <v>7.087911505692336</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.49664201668419</v>
+        <v>33.38182040108275</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.72740848560192</v>
+        <v>39.98005947178821</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.296208780126754</v>
+        <v>0.1194314545615747</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.7600609892196</v>
+        <v>22.14371888223507</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.4142648921983</v>
+        <v>28.92130725898043</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.2935969610977</v>
+        <v>7.647770874802351</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.93117665841655</v>
+        <v>41.5712293480935</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>32.95972052108451</v>
+        <v>48.70561696281146</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.71884687294258</v>
+        <v>46.95052643789515</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.95168844806085</v>
+        <v>54.17205849776003</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>44.44896381350482</v>
+        <v>61.07240953366756</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.73810062791048</v>
+        <v>9.01367980396725</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.51419752089967</v>
+        <v>43.45446921171525</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>43.14830168726991</v>
+        <v>47.24559249452657</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.67044735642718</v>
+        <v>1.215690447053634</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.269620225001</v>
+        <v>12.64979858292991</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.31518275040911</v>
+        <v>16.24137194672642</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.219712701467081</v>
+        <v>-3.621786067848671</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.8377065992055</v>
+        <v>5.263779499194246</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.27109947098845</v>
+        <v>9.24180279206122</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.4495830344414</v>
+        <v>2.315726787615587</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.36129623136777</v>
+        <v>21.11944388039681</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.21245120877822</v>
+        <v>24.25743116739264</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.25506144587975</v>
+        <v>16.23697542526037</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.96765781502114</v>
+        <v>17.83169845589027</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.34420746690187</v>
+        <v>21.86103898248595</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.83456998585176</v>
+        <v>1.081952900715832</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.50005189346679</v>
+        <v>10.21872843081512</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.89266901539531</v>
+        <v>16.73940948334558</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.90272748501984</v>
+        <v>-4.92536236472187</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.70893974505965</v>
+        <v>8.054804600182699</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.80169317927223</v>
+        <v>15.52578964000081</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.237424525086652</v>
+        <v>-12.09917133556652</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.13167038866811</v>
+        <v>-3.748534637679249</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.61424323339742</v>
+        <v>3.85319649551014</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.72633362758732</v>
+        <v>-10.80903956871295</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.87015250082876</v>
+        <v>9.420176120040747</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.75999436120464</v>
+        <v>17.29797288053238</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.04723985426111</v>
+        <v>5.870921998857015</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.96520239011053</v>
+        <v>12.85007576152307</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.35543448612863</v>
+        <v>19.80602373693953</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.50458701071179</v>
+        <v>-10.9012849443167</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.56536459735497</v>
+        <v>6.683682770542012</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.98615707033685</v>
+        <v>12.28916800962641</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.0775433170716</v>
+        <v>4.185861423109786</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.23975844623084</v>
+        <v>21.53292849739584</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.49408235754836</v>
+        <v>29.87956451568741</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.31874016257683</v>
+        <v>-5.528466514955394</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.58433372857337</v>
+        <v>8.145308519792184</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.25977623690875</v>
+        <v>15.82107695997349</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.57014788929256</v>
+        <v>0.8070547282706872</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.04405831882369</v>
+        <v>25.53766606995158</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.08847216068919</v>
+        <v>34.55535019770311</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.30545554605528</v>
+        <v>30.61276697459667</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.40597659553003</v>
+        <v>36.13771750657889</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>51.95371276279226</v>
+        <v>43.52046401481822</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.33737312862191</v>
+        <v>2.890198352680626</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>45.87129840878206</v>
+        <v>26.88388314603844</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.53454113736539</v>
+        <v>32.36105828806838</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2.05196769583938</v>
+        <v>-5.792238401537698</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.86677213200751</v>
+        <v>1.512148198467195</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.76448759349481</v>
+        <v>3.117116582426782</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-6.911816941979936</v>
+        <v>-10.54127993643678</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.97323443434086</v>
+        <v>-6.290336359184543</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.23899051772047</v>
+        <v>-3.874315200759067</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.2690655968132347</v>
+        <v>-7.560793145432029</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.57789343315231</v>
+        <v>6.856087176738605</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.28929905172831</v>
+        <v>7.963574463384427</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.15819101391926</v>
+        <v>0.6266774641324666</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.58483227738773</v>
+        <v>0.5067730387533622</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.84902431839199</v>
+        <v>4.753296058583791</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.769192310247149</v>
+        <v>-10.07782387349777</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.53539984644975</v>
+        <v>-5.021795215766534</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.71293455362269</v>
+        <v>-0.9732268923079488</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.4037318771036382</v>
+        <v>-6.907315677932811</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.52719671481918</v>
+        <v>1.895244223773643</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.47091010612055</v>
+        <v>7.006278250874293</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.650955971986008</v>
+        <v>-13.56108036544856</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.505373307583788</v>
+        <v>-9.564390131186784</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.82017886917428</v>
+        <v>-3.878945909337698</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.792366398213503</v>
+        <v>-14.78586188095179</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.32922889840261</v>
+        <v>0.9965498406451641</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.07888491974337</v>
+        <v>6.415021447264607</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.16400965947685</v>
+        <v>-3.801364057541477</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.791928420967</v>
+        <v>1.133643857334675</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.06758527227506</v>
+        <v>8.280127791022631</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.643598988046413</v>
+        <v>-16.41581535583499</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.79709870183162</v>
+        <v>-3.891189838439317</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.00305119961543</v>
+        <v>-0.6156125054879631</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>8.022300006840659</v>
+        <v>3.089207735996386</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.49198695949558</v>
+        <v>16.1873483894981</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.59564449722009</v>
+        <v>22.67080517500047</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.897348482043149</v>
+        <v>-7.263599611915655</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.4150013947891</v>
+        <v>1.96013154144511</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.91971544680775</v>
+        <v>8.317480456685075</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.11696861266529</v>
+        <v>-2.886965855764139</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.97468196553853</v>
+        <v>17.32689728620854</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.87720668876671</v>
+        <v>24.38315474362262</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.86618697185295</v>
+        <v>21.07350284514852</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.66935429733289</v>
+        <v>25.10620566262308</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.09809769859331</v>
+        <v>32.58627621485167</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.91785939251178</v>
+        <v>-2.078117935072306</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.53201311898853</v>
+        <v>16.8541508957262</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.97775643405021</v>
+        <v>20.31762818339047</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-10.51987034314297</v>
+        <v>8.876893311582094</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>3.35269192187684</v>
+        <v>23.16988047031792</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.442440412932967</v>
+        <v>26.69892979396087</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-15.93479580604576</v>
+        <v>4.508031028407697</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.020275404749341</v>
+        <v>18.64987981293606</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2.466004684382476</v>
+        <v>21.91878410340153</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-8.315687680937245</v>
+        <v>11.6023888066893</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>3.837807552789876</v>
+        <v>33.31154747835998</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6.73937561800561</v>
+        <v>36.51167504607726</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>9.287659612429529</v>
+        <v>29.5263933692954</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.20949105644765</v>
+        <v>33.04690844807979</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>18.62736601457217</v>
+        <v>35.66193601122079</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-4.827193313911167</v>
+        <v>16.84448885469858</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.21815373299309</v>
+        <v>26.52669854926355</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.67614708319294</v>
+        <v>34.73273564068531</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-7.71617609532619</v>
+        <v>1.352465219413709</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.373973848216245</v>
+        <v>16.96036156796888</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.506767691698933</v>
+        <v>24.68680467703687</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-13.42007527554678</v>
+        <v>-7.256010047280235</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.786164955960587</v>
+        <v>5.237790145065384</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.314855076437468</v>
+        <v>12.0071965678474</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-5.48963926066196</v>
+        <v>-4.806547639377762</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.90856826893306</v>
+        <v>18.07033020315251</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>9.842901293896539</v>
+        <v>26.50166623144165</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.60327234004399</v>
+        <v>18.04345230521071</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.74410539160764</v>
+        <v>29.20110371511399</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.17666954630914</v>
+        <v>33.98144837563925</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.665937152501627</v>
+        <v>-0.8537639686372316</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.79597448099124</v>
+        <v>20.06893323844866</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.26906765728359</v>
+        <v>27.00003677869902</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-1.090926169041225</v>
+        <v>5.947394333559653</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>13.3735630363643</v>
+        <v>25.45330704006179</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>16.64502933743257</v>
+        <v>34.51839051810703</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-6.805342243124159</v>
+        <v>-3.51768465426467</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>8.787797045313816</v>
+        <v>13.3310310439552</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>12.48388234922714</v>
+        <v>20.62733126637914</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.806361984179389</v>
+        <v>3.093355908627268</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>14.55150652594635</v>
+        <v>30.08657409976522</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.61958656930911</v>
+        <v>40.10286841957996</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.30824714601075</v>
+        <v>38.04412875006126</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.6433797661534</v>
+        <v>46.61819773713599</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.20811587496015</v>
+        <v>53.29206856106918</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>5.627695587499858</v>
+        <v>7.746754479710896</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.581558594401</v>
+        <v>34.5590664212657</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.27080052999803</v>
+        <v>42.41681094322325</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.1049327008138</v>
+        <v>10.8103743185801</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.97667196610629</v>
+        <v>31.44470671013731</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.04129548593826</v>
+        <v>35.78444283198763</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.843116468003871</v>
+        <v>8.997049324994308</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.77447587703565</v>
+        <v>26.4623049211281</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.23514151474576</v>
+        <v>31.18151908271341</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.18134918113513</v>
+        <v>16.04530561155542</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.35593156602499</v>
+        <v>44.11945130446298</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.23049573924155</v>
+        <v>48.04168299684942</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.38881519851535</v>
+        <v>42.27498319127214</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.22834263075143</v>
+        <v>45.13813452322754</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.60340021366572</v>
+        <v>49.61881686237185</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.66829803124531</v>
+        <v>13.56226670608785</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.74498385981396</v>
+        <v>35.19259583855648</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.16967616817048</v>
+        <v>42.65524358185696</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.40917690730854</v>
+        <v>5.43515903521595</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.48555012226542</v>
+        <v>26.78581720447418</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.59220436011078</v>
+        <v>34.33512362173556</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.930791758913131</v>
+        <v>1.247283831738851</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.13643711217931</v>
+        <v>17.46050943180247</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.63949902967865</v>
+        <v>25.35003368721782</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.53128489740342</v>
+        <v>3.179517132773022</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.93588546170635</v>
+        <v>31.82521290541084</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.84363855121521</v>
+        <v>39.73916112793669</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.24057486821343</v>
+        <v>31.86124373220096</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.28144679251047</v>
+        <v>40.1637397338897</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.66724131373611</v>
+        <v>47.97904069351181</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.39929836593665</v>
+        <v>2.853348736352867</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.86561265209513</v>
+        <v>31.78669842769493</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.31058983759591</v>
+        <v>38.08295394531692</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.16103045268342</v>
+        <v>4.122150073753065</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.57958590710876</v>
+        <v>29.52211819734623</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.84877210027915</v>
+        <v>38.31861071643795</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.62228817279196</v>
+        <v>-1.835608699288107</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.18341248885798</v>
+        <v>19.31472432492301</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.88078760226593</v>
+        <v>27.57745733558755</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.94863670386021</v>
+        <v>4.105473708063778</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>37.67051857038659</v>
+        <v>36.92036388276367</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.73422693314653</v>
+        <v>46.36271641929913</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.08571412880541</v>
+        <v>44.82418615566553</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.30691667184888</v>
+        <v>51.65713775761233</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>51.85471299940598</v>
+        <v>60.86887273343702</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.85140167424377</v>
+        <v>5.067454520298531</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>45.77301464522258</v>
+        <v>40.1692248238984</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>50.46305743127474</v>
+        <v>46.96641623620212</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.1782138578445</v>
+        <v>3.635685688095231</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.78446497245609</v>
+        <v>25.40248673239899</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.05047318809095</v>
+        <v>30.30616423321118</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.08988412412594</v>
+        <v>4.5500562898984</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.79428836034293</v>
+        <v>26.1937792853992</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.49227129460917</v>
+        <v>30.82402540942449</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.8389636181571</v>
+        <v>12.15421926909724</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.63669686569855</v>
+        <v>41.63131825626428</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>51.71291029484232</v>
+        <v>46.15586164181432</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>51.80759718724543</v>
+        <v>36.1691571974895</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>59.0858470039674</v>
+        <v>41.47595271160748</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>61.62177208148846</v>
+        <v>43.89340604155159</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.94921808884188</v>
+        <v>14.34678984308697</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>54.93303837472321</v>
+        <v>31.78226424470618</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>59.65085957948553</v>
+        <v>42.91055238472201</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.92177217910378</v>
+        <v>2.019389481704991</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.7537398609871</v>
+        <v>26.00167525974812</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.05878401339171</v>
+        <v>34.08774316732303</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.54070400484508</v>
+        <v>-1.216578034547961</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.54795948990568</v>
+        <v>19.65439503017104</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.28262819211804</v>
+        <v>26.78939036287697</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.60585627585728</v>
+        <v>2.142254382505815</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>51.65754416475839</v>
+        <v>33.63977551973682</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.7618080745029</v>
+        <v>42.41188341948678</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>55.10247978316603</v>
+        <v>33.74139557560454</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>62.60793600381952</v>
+        <v>47.50623128049028</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>65.15442977736849</v>
+        <v>52.14303284262718</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>39.09914933399477</v>
+        <v>5.20098205083355</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>58.51585395067671</v>
+        <v>36.08442023955173</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>63.241744574425</v>
+        <v>44.64981291031695</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.52607121458114</v>
+        <v>-0.3742688667177525</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>53.74568605952096</v>
+        <v>27.23210347403914</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>57.21144542996431</v>
+        <v>36.96758292368</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.06958912142477</v>
+        <v>-4.310650385950314</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.47729426820026</v>
+        <v>20.6072765680026</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>54.40524393706443</v>
+        <v>28.47866697414285</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.79897707095557</v>
+        <v>2.395959205649135</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.20967132127731</v>
+        <v>37.71292218886945</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.46908063734983</v>
+        <v>48.41637446293241</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.79805251146135</v>
+        <v>45.58302200829249</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>69.50927063243941</v>
+        <v>56.65391568761908</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>72.20555241441772</v>
+        <v>63.66760422549854</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>45.39312614102337</v>
+        <v>6.141948064094814</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.32209143962648</v>
+        <v>43.05212118452616</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>70.29534011989071</v>
+        <v>52.5176198744245</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>80.58553549552201</v>
+        <v>12.39900643877982</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>96.4153892826163</v>
+        <v>28.20287079076833</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>100.0816364529026</v>
+        <v>31.80165209150319</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>77.51541430172408</v>
+        <v>16.09448521535093</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>94.50347765200189</v>
+        <v>32.53041340022143</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>98.66611602823936</v>
+        <v>35.8457359237063</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>90.35288201779697</v>
+        <v>19.22523040141565</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>104.1812184257821</v>
+        <v>42.26761085622429</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>107.6383785743146</v>
+        <v>45.52175246960458</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>104.4083355995414</v>
+        <v>35.98153065944824</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>112.3260807172041</v>
+        <v>40.15989419255823</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>115.1645458376448</v>
+        <v>43.43957911426703</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>85.78573160434424</v>
+        <v>21.49866320207632</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>106.2708661716426</v>
+        <v>31.65869050378602</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>111.567651684332</v>
+        <v>41.54422892666872</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>83.52418500478376</v>
+        <v>12.2876754379603</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>99.62476807824891</v>
+        <v>29.85797738786749</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>103.34288031606</v>
+        <v>37.35740810238678</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>80.15018279058795</v>
+        <v>13.88413533490631</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>97.49670355193743</v>
+        <v>28.99054976582634</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>101.7108590196983</v>
+        <v>35.35698423820953</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>93.33588854577847</v>
+        <v>11.408827660873</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>107.4647251564381</v>
+        <v>36.04535941382271</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>110.9620090743978</v>
+        <v>44.27142147477575</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>108.0174485914799</v>
+        <v>34.28380206125861</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>116.1975758558234</v>
+        <v>46.76642902315096</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>119.0529338994307</v>
+        <v>52.3586291811488</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>89.2291073942267</v>
+        <v>12.23531016326132</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>110.2236086227757</v>
+        <v>35.29125093080498</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>115.5433954126357</v>
+        <v>43.41509155569328</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>88.7736325137669</v>
+        <v>10.46415212992456</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>105.3324892167805</v>
+        <v>31.51897207245302</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>109.2377240538127</v>
+        <v>40.54840290743104</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>85.22529972381368</v>
+        <v>11.04484189867119</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>103.0482886416361</v>
+        <v>29.89579181828014</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>107.486522331838</v>
+        <v>36.9892374029364</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>99.15510872856782</v>
+        <v>12.3953083415501</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>113.70902698766</v>
+        <v>40.74460562821272</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>117.386175343031</v>
+        <v>50.74646612771215</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>114.5042142334874</v>
+        <v>47.63657393136376</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>122.9211394101822</v>
+        <v>57.17225347836364</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>125.9469787992976</v>
+        <v>65.13481375206304</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>95.26859226717914</v>
+        <v>14.2983438770668</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>116.8701050876992</v>
+        <v>43.02314913316232</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>122.4749923033502</v>
+        <v>52.32224313807597</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.66973810720223</v>
+        <v>4.537983534350468</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>40.3023307784403</v>
+        <v>27.06538323172519</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>43.54355311030669</v>
+        <v>30.35872482546053</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.66208663338497</v>
+        <v>2.056969353983884</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.40210142288225</v>
+        <v>21.75903853422851</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.07119418819391</v>
+        <v>25.21857576934682</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.21863999483293</v>
+        <v>9.976237577900195</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.04967346220988</v>
+        <v>40.28899846534559</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.09760568693967</v>
+        <v>43.1556799221504</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.40901001120875</v>
+        <v>38.56530231030258</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.63548830126018</v>
+        <v>42.27106697694452</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.13810494182049</v>
+        <v>44.62098280119704</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.48779510117043</v>
+        <v>7.306456819617825</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.53352560660846</v>
+        <v>30.35948937465508</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>55.21804156664322</v>
+        <v>37.32402574185849</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.28163429118976</v>
+        <v>0.1923760211767718</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.13633807733936</v>
+        <v>24.23779938867669</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>46.41891381812418</v>
+        <v>30.6007562467587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.02373544335762</v>
+        <v>-4.859461750059808</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.06119114982521</v>
+        <v>14.21716076771812</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.77050697991393</v>
+        <v>20.64927922357497</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.87394424011217</v>
+        <v>-2.051332676518483</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.95443972437964</v>
+        <v>29.60815767703412</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.03360633179961</v>
+        <v>36.37818891977253</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>50.58820371552157</v>
+        <v>30.62114540368039</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.03280473674172</v>
+        <v>40.50693971977364</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>60.54554916637773</v>
+        <v>45.91148879560336</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.53302577819488</v>
+        <v>-2.267906886758521</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>54.00111718571937</v>
+        <v>29.83963102794389</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>58.70095330280346</v>
+        <v>35.45029329174104</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.58473907726419</v>
+        <v>-2.236442033143238</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.80878632898234</v>
+        <v>26.32758191482341</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>53.26128430460717</v>
+        <v>34.12357388685417</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.25948653108397</v>
+        <v>-8.416185822903525</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.67963414786551</v>
+        <v>15.8403228141714</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.59242698714132</v>
+        <v>22.82611000107892</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.82472697655059</v>
+        <v>-2.012962869335507</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.24736871672479</v>
+        <v>34.32519749003075</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.49019559220621</v>
+        <v>42.80521294721891</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.03280107102561</v>
+        <v>42.59516096744348</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.67293528509546</v>
+        <v>50.71629688663518</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>68.35112624727576</v>
+        <v>57.97475372407844</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>41.57707198209214</v>
+        <v>-2.074188518606899</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>61.53600746135807</v>
+        <v>37.12263667983991</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>66.49353128174266</v>
+        <v>43.43145546706029</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.00908704950708</v>
+        <v>-0.6972821817806558</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.59775213280061</v>
+        <v>11.83362609402862</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.66059604258174</v>
+        <v>15.71487146517909</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>8.455421965577848</v>
+        <v>-7.02484394327977</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.05071568863995</v>
+        <v>4.880576206701614</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.51439378223619</v>
+        <v>8.587416628065011</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.825770504714</v>
+        <v>-0.3009773105301505</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.71772229001609</v>
+        <v>19.24006659949222</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.59753060085737</v>
+        <v>22.85105471684193</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.80174867794656</v>
+        <v>15.08734373852652</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.53904693528847</v>
+        <v>17.68409643576461</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.93291081496362</v>
+        <v>19.57350019068355</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.34493143434938</v>
+        <v>-0.8381673820942339</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.00413050592326</v>
+        <v>8.000493691591156</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.43011944930528</v>
+        <v>14.81368947784976</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>15.79281922995908</v>
+        <v>2.014426324610362</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.6076211387015</v>
+        <v>17.84709033251949</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>32.71865572094912</v>
+        <v>26.72061561517972</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.97068728240846</v>
+        <v>-5.150649219674662</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.86630134610217</v>
+        <v>7.24795580389218</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.37827006843671</v>
+        <v>15.45018980486575</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>19.64928797037648</v>
+        <v>-1.956964252875595</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.79317212563306</v>
+        <v>20.75199294261107</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.71103767241924</v>
+        <v>30.29551437245011</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.11686359741404</v>
+        <v>20.66921405773168</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.07406609819279</v>
+        <v>30.58736689500783</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.48661608206177</v>
+        <v>35.30749941750501</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>21.50730207400398</v>
+        <v>-1.772842697853829</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.59268399109256</v>
+        <v>20.32031102623679</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>44.04329102884844</v>
+        <v>27.18527034210784</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.94006993100745</v>
+        <v>2.502541222482639</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.12780063945368</v>
+        <v>22.86897256572627</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.37666850916646</v>
+        <v>32.44312886686528</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>17.08447662490505</v>
+        <v>-5.300970714811736</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.36642240628979</v>
+        <v>12.19579621591233</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.04444335046568</v>
+        <v>20.18612033133064</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.42555777696202</v>
+        <v>1.388940429178685</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.91507867631348</v>
+        <v>28.78309422750072</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.96565649979546</v>
+        <v>39.29163305886835</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>43.33241904927448</v>
+        <v>35.54151201890381</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.48313924869471</v>
+        <v>43.61609345798714</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>53.02653652343481</v>
+        <v>49.23141094442546</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.32515780017473</v>
+        <v>2.437301766960754</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>46.90125289053223</v>
+        <v>31.75842144109746</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.56547074195741</v>
+        <v>38.67215541746134</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.58003063375715</v>
+        <v>0.9299355417502468</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>96.37181454330101</v>
+        <v>15.2103913652117</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>100.0310387345292</v>
+        <v>19.00504975364708</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>77.49527095902415</v>
+        <v>2.063904154358728</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>94.4430674220242</v>
+        <v>16.86840358827111</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>98.5971509538426</v>
+        <v>20.35345264357942</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>90.31597856624471</v>
+        <v>5.693542673298449</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>104.1112145110091</v>
+        <v>27.13987210488335</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>107.5609813495503</v>
+        <v>30.6059969335376</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>104.3354953893075</v>
+        <v>22.41655221370617</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>112.2281126498662</v>
+        <v>26.57767919211404</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>115.0657353022847</v>
+        <v>30.21988935348538</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>85.74208105633873</v>
+        <v>9.05345266571878</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>106.18211825407</v>
+        <v>18.29515361951779</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>111.4675385252142</v>
+        <v>28.01894660918084</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>83.46509346097523</v>
+        <v>-0.4458978986529178</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>99.52678161240695</v>
+        <v>15.64833817633252</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>103.2401798058353</v>
+        <v>24.12642095902357</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>80.07583589483134</v>
+        <v>-1.303280020142157</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>97.38119257496371</v>
+        <v>12.22905491241492</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>101.5894541043844</v>
+        <v>19.58623398386692</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>93.24144526929129</v>
+        <v>-3.126290062198098</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>107.3364446932208</v>
+        <v>19.96369154301116</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>110.8286195650901</v>
+        <v>29.17979002509565</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>107.8876832603561</v>
+        <v>19.25046254995414</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>116.0420404216896</v>
+        <v>31.78854987614983</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>118.8986262644587</v>
+        <v>38.06687422336876</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>89.12812822455201</v>
+        <v>-1.869095546277006</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>110.0760679590769</v>
+        <v>20.16514248329734</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>115.3880086792393</v>
+        <v>28.91338212060607</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>88.71940277022976</v>
+        <v>-2.006962064604803</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>105.239300839438</v>
+        <v>17.72254620010535</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>109.1375225588841</v>
+        <v>27.52065873983381</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>85.15590985814201</v>
+        <v>-4.056317224722473</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>102.9378591528549</v>
+        <v>13.3741670199652</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>107.3675604450746</v>
+        <v>21.2307835625365</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>99.06518268271198</v>
+        <v>-2.030733966538248</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>113.5852909930882</v>
+        <v>24.92846426143463</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>117.2550956714387</v>
+        <v>35.70325671216462</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>114.3779972608392</v>
+        <v>32.86550642061352</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>122.7684843366012</v>
+        <v>42.39316713246945</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>125.7940008645076</v>
+        <v>50.80700082115312</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>95.17262003435638</v>
+        <v>0.3652658700858229</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>116.7268636898235</v>
+        <v>28.08789584068046</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>122.3205545364918</v>
+        <v>37.99172485284203</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.21470463614281</v>
+        <v>10.69693885678754</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.06823734162935</v>
+        <v>30.23792664927808</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.15730391342957</v>
+        <v>35.16672814248221</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>11.83645707431742</v>
+        <v>9.868990130484338</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.71179028405753</v>
+        <v>29.95671394468822</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.20393977217972</v>
+        <v>34.88858593748952</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.43712633697209</v>
+        <v>18.91278412620701</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.56692797638861</v>
+        <v>45.75058954075133</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.47003966160949</v>
+        <v>50.18443817865517</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.42189431539342</v>
+        <v>40.96737141441415</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.28184222037623</v>
+        <v>45.45281825152311</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.67190655445177</v>
+        <v>48.67884066672235</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.7810357130696</v>
+        <v>23.94870993796058</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.76617289993246</v>
+        <v>37.15046374169482</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>44.24065980062963</v>
+        <v>48.93708710195826</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.6394735220543</v>
+        <v>8.388421027255909</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.70484673819183</v>
+        <v>28.92383615610471</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.83305947546378</v>
+        <v>36.18089424519907</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.98910710836331</v>
+        <v>2.876758067787737</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.14868235752856</v>
+        <v>20.94843109102003</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>32.67860639334031</v>
+        <v>27.73999181316103</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>22.88079129785103</v>
+        <v>6.605834193373122</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.24887269655665</v>
+        <v>34.30867150512915</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.18133927126553</v>
+        <v>42.04061626556659</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.37658043225549</v>
+        <v>32.99302355774567</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.44910347878533</v>
+        <v>44.02910231291067</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.85095228367684</v>
+        <v>49.15125416423524</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.60726889697408</v>
+        <v>10.93351242235152</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.99954282183069</v>
+        <v>35.10709488130203</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>47.48528770732262</v>
+        <v>43.52709074785112</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.42544542820302</v>
+        <v>6.440182883901313</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.85313547522539</v>
+        <v>31.29613697253816</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>42.12275787940122</v>
+        <v>39.494063493464</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>19.70751413560332</v>
+        <v>0.8627234658506193</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.2434820456789</v>
+        <v>23.76944333571597</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>38.94517140627313</v>
+        <v>30.64270666155175</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.24967402025452</v>
+        <v>8.364434058749556</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.95458244935577</v>
+        <v>40.5630196619983</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>45.0233285902376</v>
+        <v>49.50040906792432</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.19447196110263</v>
+        <v>46.74458081295312</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>53.45694569182408</v>
+        <v>55.99157938658536</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>55.99726449073975</v>
+        <v>62.49064309115874</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.03101915347793</v>
+        <v>13.86595178721449</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>49.90368966304293</v>
+        <v>44.66075188966697</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>54.60732825787683</v>
+        <v>53.35013880575518</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.87460357892757</v>
+        <v>2.552769337492027</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.44984884991617</v>
+        <v>25.1707237295862</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>37.66759332257124</v>
+        <v>28.75236663188513</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>15.69734939810883</v>
+        <v>0.9394436110324875</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.37991389044889</v>
+        <v>21.20812272462252</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.02368596827655</v>
+        <v>24.62381052736968</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>24.96128824341029</v>
+        <v>8.474010134267827</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.74791522996077</v>
+        <v>38.77124817458473</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>40.7748010200325</v>
+        <v>41.99584356744331</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.45056988475973</v>
+        <v>36.18303131102292</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>48.64191525601591</v>
+        <v>40.62763768773359</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>51.13242125840581</v>
+        <v>42.28140544295517</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.75712366018362</v>
+        <v>5.242968708846192</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>44.73756739088215</v>
+        <v>28.25889444072914</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>49.39088715097591</v>
+        <v>35.65863098622714</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.52404398226369</v>
+        <v>0.6023884803561703</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.3181756590711</v>
+        <v>24.88439324947598</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>40.57672341720021</v>
+        <v>31.6478088171791</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>18.09279650967618</v>
+        <v>-3.438943135290614</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.06903194627102</v>
+        <v>16.17306362501616</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.7520984632111</v>
+        <v>22.68465065334083</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>27.65301859346974</v>
+        <v>-0.9169839863623022</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.68588223604112</v>
+        <v>30.89583737134522</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.74330968017001</v>
+        <v>38.13952643341145</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.65546923055603</v>
+        <v>31.48508013878233</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.06249924541206</v>
+        <v>42.00445533122524</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>54.56326835217476</v>
+        <v>46.92670807315418</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.82770332426758</v>
+        <v>-1.871241437895442</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.22566672864021</v>
+        <v>30.61672540210254</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>52.8930243102421</v>
+        <v>36.72242213007108</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.7763488719243</v>
+        <v>-3.281181939377085</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.93449931464563</v>
+        <v>25.48358655832564</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.3572231234178</v>
+        <v>33.55128460870438</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>24.28831678341875</v>
+        <v>-8.239402568576264</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>40.64133858377228</v>
+        <v>16.43213129635342</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.52129349942334</v>
+        <v>23.38039343452819</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.54724860002624</v>
+        <v>-2.470929167934791</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.91734015381263</v>
+        <v>33.9919941115697</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>51.13307702498946</v>
+        <v>42.80613721516384</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.02790455996478</v>
+        <v>41.47574861422433</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>59.6294847544171</v>
+        <v>50.33330169343384</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>62.29116845381548</v>
+        <v>57.16967209529842</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.80543615300843</v>
+        <v>-3.40891104968626</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>55.68650481225464</v>
+        <v>36.18986716170262</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>60.6042276601954</v>
+        <v>42.97668768378594</v>
       </c>
     </row>
   </sheetData>
